--- a/Compta-Gestion/Excel-avance/TP_Igloo.xlsx
+++ b/Compta-Gestion/Excel-avance/TP_Igloo.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Cours Maths\25-26\DCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{479F34BE-FD5D-4CF0-8214-A8031EE53100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18198F20-930B-4D79-A3CC-9C24A0ABF1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C679B26-D850-4D8B-8C3A-2702E7126FBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1C679B26-D850-4D8B-8C3A-2702E7126FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Devis" sheetId="1" r:id="rId1"/>
     <sheet name="Données" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="REDUCTIONS">Données!$B$15:$C$18</definedName>
+    <definedName name="TARIFS">Données!$C$4:$G$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -802,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AA1261-E7F7-462B-89EF-FB0205187BB2}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1085,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2011A907-3DF8-4706-8F53-8F2232193D4F}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
